--- a/data-folder/CP replication data/xr.xlsx
+++ b/data-folder/CP replication data/xr.xlsx
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>22433</v>
+        <v>22798</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>22463</v>
+        <v>22828</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>22494</v>
+        <v>22859</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>22525</v>
+        <v>22890</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>22555</v>
+        <v>22920</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>22586</v>
+        <v>22951</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>22616</v>
+        <v>22981</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>22647</v>
+        <v>23012</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>22678</v>
+        <v>23043</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>22706</v>
+        <v>23071</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>22737</v>
+        <v>23102</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>22767</v>
+        <v>23132</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>22798</v>
+        <v>23163</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>22828</v>
+        <v>23193</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>22859</v>
+        <v>23224</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>22890</v>
+        <v>23255</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>22920</v>
+        <v>23285</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>22951</v>
+        <v>23316</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>22981</v>
+        <v>23346</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>23012</v>
+        <v>23377</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>23043</v>
+        <v>23408</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>23071</v>
+        <v>23437</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>23102</v>
+        <v>23468</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>23132</v>
+        <v>23498</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>23163</v>
+        <v>23529</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>23193</v>
+        <v>23559</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>23224</v>
+        <v>23590</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>23255</v>
+        <v>23621</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>23285</v>
+        <v>23651</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>23316</v>
+        <v>23682</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>23346</v>
+        <v>23712</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>23377</v>
+        <v>23743</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>23408</v>
+        <v>23774</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>23437</v>
+        <v>23802</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>23468</v>
+        <v>23833</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>23498</v>
+        <v>23863</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>23529</v>
+        <v>23894</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>23559</v>
+        <v>23924</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>23590</v>
+        <v>23955</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>23621</v>
+        <v>23986</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>23651</v>
+        <v>24016</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>23682</v>
+        <v>24047</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>23712</v>
+        <v>24077</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>23743</v>
+        <v>24108</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>23774</v>
+        <v>24139</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>23802</v>
+        <v>24167</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>23833</v>
+        <v>24198</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>23863</v>
+        <v>24228</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>23894</v>
+        <v>24259</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>23924</v>
+        <v>24289</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>23955</v>
+        <v>24320</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>23986</v>
+        <v>24351</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>24016</v>
+        <v>24381</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>24047</v>
+        <v>24412</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>24077</v>
+        <v>24442</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>24108</v>
+        <v>24473</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>24139</v>
+        <v>24504</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>24167</v>
+        <v>24532</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>24198</v>
+        <v>24563</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>24228</v>
+        <v>24593</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>24259</v>
+        <v>24624</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>24289</v>
+        <v>24654</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>24320</v>
+        <v>24685</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>24351</v>
+        <v>24716</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>24381</v>
+        <v>24746</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>24412</v>
+        <v>24777</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>24442</v>
+        <v>24807</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>24473</v>
+        <v>24838</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>24504</v>
+        <v>24869</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>24532</v>
+        <v>24898</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>24563</v>
+        <v>24929</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>24593</v>
+        <v>24959</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>24624</v>
+        <v>24990</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>24654</v>
+        <v>25020</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>24685</v>
+        <v>25051</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>24716</v>
+        <v>25082</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>24746</v>
+        <v>25112</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>24777</v>
+        <v>25143</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>24807</v>
+        <v>25173</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>24838</v>
+        <v>25204</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>24869</v>
+        <v>25235</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>24898</v>
+        <v>25263</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>24929</v>
+        <v>25294</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>24959</v>
+        <v>25324</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>24990</v>
+        <v>25355</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>25020</v>
+        <v>25385</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>25051</v>
+        <v>25416</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>25082</v>
+        <v>25447</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>25112</v>
+        <v>25477</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>25143</v>
+        <v>25508</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>25173</v>
+        <v>25538</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>25204</v>
+        <v>25569</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>25235</v>
+        <v>25600</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>25263</v>
+        <v>25628</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>25294</v>
+        <v>25659</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>25324</v>
+        <v>25689</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>25355</v>
+        <v>25720</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>25385</v>
+        <v>25750</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>25416</v>
+        <v>25781</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>25447</v>
+        <v>25812</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>25477</v>
+        <v>25842</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>25508</v>
+        <v>25873</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>25538</v>
+        <v>25903</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>25569</v>
+        <v>25934</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>25600</v>
+        <v>25965</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>25628</v>
+        <v>25993</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>25659</v>
+        <v>26024</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>25689</v>
+        <v>26054</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>25720</v>
+        <v>26085</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>25750</v>
+        <v>26115</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>25781</v>
+        <v>26146</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>25812</v>
+        <v>26177</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>25842</v>
+        <v>26207</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>25873</v>
+        <v>26238</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>25903</v>
+        <v>26268</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>25934</v>
+        <v>26299</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>25965</v>
+        <v>26330</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>25993</v>
+        <v>26359</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>26024</v>
+        <v>26390</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>26054</v>
+        <v>26420</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>26085</v>
+        <v>26451</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>26115</v>
+        <v>26481</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>26146</v>
+        <v>26512</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>26177</v>
+        <v>26543</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>26207</v>
+        <v>26573</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>26238</v>
+        <v>26604</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>26268</v>
+        <v>26634</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>26299</v>
+        <v>26665</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>26330</v>
+        <v>26696</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>26359</v>
+        <v>26724</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>26390</v>
+        <v>26755</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>26420</v>
+        <v>26785</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>26451</v>
+        <v>26816</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>26481</v>
+        <v>26846</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>26512</v>
+        <v>26877</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>26543</v>
+        <v>26908</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>26573</v>
+        <v>26938</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>26604</v>
+        <v>26969</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>26634</v>
+        <v>26999</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>26665</v>
+        <v>27030</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>26696</v>
+        <v>27061</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>26724</v>
+        <v>27089</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>26755</v>
+        <v>27120</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>26785</v>
+        <v>27150</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>26816</v>
+        <v>27181</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>26846</v>
+        <v>27211</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>26877</v>
+        <v>27242</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>26908</v>
+        <v>27273</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>26938</v>
+        <v>27303</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>26969</v>
+        <v>27334</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>26999</v>
+        <v>27364</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>27030</v>
+        <v>27395</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>27061</v>
+        <v>27426</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>27089</v>
+        <v>27454</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>27120</v>
+        <v>27485</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>27150</v>
+        <v>27515</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>27181</v>
+        <v>27546</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>27211</v>
+        <v>27576</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>27242</v>
+        <v>27607</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>27273</v>
+        <v>27638</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>27303</v>
+        <v>27668</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>27334</v>
+        <v>27699</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>27364</v>
+        <v>27729</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>27395</v>
+        <v>27760</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>27426</v>
+        <v>27791</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>27454</v>
+        <v>27820</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>27485</v>
+        <v>27851</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>27515</v>
+        <v>27881</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>27546</v>
+        <v>27912</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>27576</v>
+        <v>27942</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>27607</v>
+        <v>27973</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>27638</v>
+        <v>28004</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>27668</v>
+        <v>28034</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>27699</v>
+        <v>28065</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>27729</v>
+        <v>28095</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>27760</v>
+        <v>28126</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>27791</v>
+        <v>28157</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>27820</v>
+        <v>28185</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>27851</v>
+        <v>28216</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>27881</v>
+        <v>28246</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>27912</v>
+        <v>28277</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>27942</v>
+        <v>28307</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>27973</v>
+        <v>28338</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>28004</v>
+        <v>28369</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>28034</v>
+        <v>28399</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>28065</v>
+        <v>28430</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>28095</v>
+        <v>28460</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>28126</v>
+        <v>28491</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>28157</v>
+        <v>28522</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>28185</v>
+        <v>28550</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>28216</v>
+        <v>28581</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>28246</v>
+        <v>28611</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>28277</v>
+        <v>28642</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>28307</v>
+        <v>28672</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>28338</v>
+        <v>28703</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>28369</v>
+        <v>28734</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>28399</v>
+        <v>28764</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>28430</v>
+        <v>28795</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>28460</v>
+        <v>28825</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>28491</v>
+        <v>28856</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>28522</v>
+        <v>28887</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>28550</v>
+        <v>28915</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>28581</v>
+        <v>28946</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>28611</v>
+        <v>28976</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>28642</v>
+        <v>29007</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>28672</v>
+        <v>29037</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>28703</v>
+        <v>29068</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>28734</v>
+        <v>29099</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>28764</v>
+        <v>29129</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>28795</v>
+        <v>29160</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>28825</v>
+        <v>29190</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>28856</v>
+        <v>29221</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>28887</v>
+        <v>29252</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>28915</v>
+        <v>29281</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>28946</v>
+        <v>29312</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>28976</v>
+        <v>29342</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>29007</v>
+        <v>29373</v>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>29037</v>
+        <v>29403</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>29068</v>
+        <v>29434</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>29099</v>
+        <v>29465</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>29129</v>
+        <v>29495</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>29160</v>
+        <v>29526</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>29190</v>
+        <v>29556</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>29221</v>
+        <v>29587</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>29252</v>
+        <v>29618</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>29281</v>
+        <v>29646</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>29312</v>
+        <v>29677</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>29342</v>
+        <v>29707</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>29373</v>
+        <v>29738</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>29403</v>
+        <v>29768</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>29434</v>
+        <v>29799</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>29465</v>
+        <v>29830</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>29495</v>
+        <v>29860</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>29526</v>
+        <v>29891</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>29556</v>
+        <v>29921</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>29587</v>
+        <v>29952</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>29618</v>
+        <v>29983</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>29646</v>
+        <v>30011</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>29677</v>
+        <v>30042</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>29707</v>
+        <v>30072</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>29738</v>
+        <v>30103</v>
       </c>
       <c r="B242" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>29768</v>
+        <v>30133</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>29799</v>
+        <v>30164</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>29830</v>
+        <v>30195</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>29860</v>
+        <v>30225</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>29891</v>
+        <v>30256</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>29921</v>
+        <v>30286</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>29952</v>
+        <v>30317</v>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>29983</v>
+        <v>30348</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>30011</v>
+        <v>30376</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>30042</v>
+        <v>30407</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>30072</v>
+        <v>30437</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>30103</v>
+        <v>30468</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>30133</v>
+        <v>30498</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>30164</v>
+        <v>30529</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>30195</v>
+        <v>30560</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>30225</v>
+        <v>30590</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>30256</v>
+        <v>30621</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>30286</v>
+        <v>30651</v>
       </c>
       <c r="B260" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>30317</v>
+        <v>30682</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>30348</v>
+        <v>30713</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>30376</v>
+        <v>30742</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>30407</v>
+        <v>30773</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>30437</v>
+        <v>30803</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>30468</v>
+        <v>30834</v>
       </c>
       <c r="B266" t="n">
         <v>0</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>30498</v>
+        <v>30864</v>
       </c>
       <c r="B267" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>30529</v>
+        <v>30895</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>30560</v>
+        <v>30926</v>
       </c>
       <c r="B269" t="n">
         <v>0</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>30590</v>
+        <v>30956</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>30621</v>
+        <v>30987</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>30651</v>
+        <v>31017</v>
       </c>
       <c r="B272" t="n">
         <v>0</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>30682</v>
+        <v>31048</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>30713</v>
+        <v>31079</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>30742</v>
+        <v>31107</v>
       </c>
       <c r="B275" t="n">
         <v>0</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>30773</v>
+        <v>31138</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>30803</v>
+        <v>31168</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>30834</v>
+        <v>31199</v>
       </c>
       <c r="B278" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>30864</v>
+        <v>31229</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>30895</v>
+        <v>31260</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>30926</v>
+        <v>31291</v>
       </c>
       <c r="B281" t="n">
         <v>0</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>30956</v>
+        <v>31321</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>30987</v>
+        <v>31352</v>
       </c>
       <c r="B283" t="n">
         <v>0</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>31017</v>
+        <v>31382</v>
       </c>
       <c r="B284" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>31048</v>
+        <v>31413</v>
       </c>
       <c r="B285" t="n">
         <v>0</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>31079</v>
+        <v>31444</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>31107</v>
+        <v>31472</v>
       </c>
       <c r="B287" t="n">
         <v>0</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>31138</v>
+        <v>31503</v>
       </c>
       <c r="B288" t="n">
         <v>0</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>31168</v>
+        <v>31533</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>31199</v>
+        <v>31564</v>
       </c>
       <c r="B290" t="n">
         <v>0</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>31229</v>
+        <v>31594</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>31260</v>
+        <v>31625</v>
       </c>
       <c r="B292" t="n">
         <v>0</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>31291</v>
+        <v>31656</v>
       </c>
       <c r="B293" t="n">
         <v>0</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>31321</v>
+        <v>31686</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>31352</v>
+        <v>31717</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>31382</v>
+        <v>31747</v>
       </c>
       <c r="B296" t="n">
         <v>0</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>31413</v>
+        <v>31778</v>
       </c>
       <c r="B297" t="n">
         <v>0</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>31444</v>
+        <v>31809</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>31472</v>
+        <v>31837</v>
       </c>
       <c r="B299" t="n">
         <v>0</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>31503</v>
+        <v>31868</v>
       </c>
       <c r="B300" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>31533</v>
+        <v>31898</v>
       </c>
       <c r="B301" t="n">
         <v>0</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>31564</v>
+        <v>31929</v>
       </c>
       <c r="B302" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>31594</v>
+        <v>31959</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>31625</v>
+        <v>31990</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>31656</v>
+        <v>32021</v>
       </c>
       <c r="B305" t="n">
         <v>0</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>31686</v>
+        <v>32051</v>
       </c>
       <c r="B306" t="n">
         <v>0</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>31717</v>
+        <v>32082</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>31747</v>
+        <v>32112</v>
       </c>
       <c r="B308" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>31778</v>
+        <v>32143</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>31809</v>
+        <v>32174</v>
       </c>
       <c r="B310" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>31837</v>
+        <v>32203</v>
       </c>
       <c r="B311" t="n">
         <v>0</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>31868</v>
+        <v>32234</v>
       </c>
       <c r="B312" t="n">
         <v>0</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>31898</v>
+        <v>32264</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>31929</v>
+        <v>32295</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>31959</v>
+        <v>32325</v>
       </c>
       <c r="B315" t="n">
         <v>0</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>31990</v>
+        <v>32356</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>32021</v>
+        <v>32387</v>
       </c>
       <c r="B317" t="n">
         <v>0</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>32051</v>
+        <v>32417</v>
       </c>
       <c r="B318" t="n">
         <v>0</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>32082</v>
+        <v>32448</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>32112</v>
+        <v>32478</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>32143</v>
+        <v>32509</v>
       </c>
       <c r="B321" t="n">
         <v>0</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>32174</v>
+        <v>32540</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>32203</v>
+        <v>32568</v>
       </c>
       <c r="B323" t="n">
         <v>0</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>32234</v>
+        <v>32599</v>
       </c>
       <c r="B324" t="n">
         <v>0</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>32264</v>
+        <v>32629</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>32295</v>
+        <v>32660</v>
       </c>
       <c r="B326" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>32325</v>
+        <v>32690</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>32356</v>
+        <v>32721</v>
       </c>
       <c r="B328" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>32387</v>
+        <v>32752</v>
       </c>
       <c r="B329" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>32417</v>
+        <v>32782</v>
       </c>
       <c r="B330" t="n">
         <v>0</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>32448</v>
+        <v>32813</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>32478</v>
+        <v>32843</v>
       </c>
       <c r="B332" t="n">
         <v>0</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>32509</v>
+        <v>32874</v>
       </c>
       <c r="B333" t="n">
         <v>0</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>32540</v>
+        <v>32905</v>
       </c>
       <c r="B334" t="n">
         <v>0</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>32568</v>
+        <v>32933</v>
       </c>
       <c r="B335" t="n">
         <v>0</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>32599</v>
+        <v>32964</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>32629</v>
+        <v>32994</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>32660</v>
+        <v>33025</v>
       </c>
       <c r="B338" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>32690</v>
+        <v>33055</v>
       </c>
       <c r="B339" t="n">
         <v>0</v>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>32721</v>
+        <v>33086</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>32752</v>
+        <v>33117</v>
       </c>
       <c r="B341" t="n">
         <v>0</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>32782</v>
+        <v>33147</v>
       </c>
       <c r="B342" t="n">
         <v>0</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>32813</v>
+        <v>33178</v>
       </c>
       <c r="B343" t="n">
         <v>0</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>32843</v>
+        <v>33208</v>
       </c>
       <c r="B344" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>32874</v>
+        <v>33239</v>
       </c>
       <c r="B345" t="n">
         <v>0</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>32905</v>
+        <v>33270</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>32933</v>
+        <v>33298</v>
       </c>
       <c r="B347" t="n">
         <v>0</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>32964</v>
+        <v>33329</v>
       </c>
       <c r="B348" t="n">
         <v>0</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>32994</v>
+        <v>33359</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>33025</v>
+        <v>33390</v>
       </c>
       <c r="B350" t="n">
         <v>0</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>33055</v>
+        <v>33420</v>
       </c>
       <c r="B351" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>33086</v>
+        <v>33451</v>
       </c>
       <c r="B352" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>33117</v>
+        <v>33482</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>33147</v>
+        <v>33512</v>
       </c>
       <c r="B354" t="n">
         <v>0</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>33178</v>
+        <v>33543</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>33208</v>
+        <v>33573</v>
       </c>
       <c r="B356" t="n">
         <v>0</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>33239</v>
+        <v>33604</v>
       </c>
       <c r="B357" t="n">
         <v>0</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>33270</v>
+        <v>33635</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>33298</v>
+        <v>33664</v>
       </c>
       <c r="B359" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>33329</v>
+        <v>33695</v>
       </c>
       <c r="B360" t="n">
         <v>0</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>33359</v>
+        <v>33725</v>
       </c>
       <c r="B361" t="n">
         <v>0</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>33390</v>
+        <v>33756</v>
       </c>
       <c r="B362" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>33420</v>
+        <v>33786</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>33451</v>
+        <v>33817</v>
       </c>
       <c r="B364" t="n">
         <v>0</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>33482</v>
+        <v>33848</v>
       </c>
       <c r="B365" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>33512</v>
+        <v>33878</v>
       </c>
       <c r="B366" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>33543</v>
+        <v>33909</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>33573</v>
+        <v>33939</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>33604</v>
+        <v>33970</v>
       </c>
       <c r="B369" t="n">
         <v>0</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>33635</v>
+        <v>34001</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>33664</v>
+        <v>34029</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>33695</v>
+        <v>34060</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>33725</v>
+        <v>34090</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>33756</v>
+        <v>34121</v>
       </c>
       <c r="B374" t="n">
         <v>0</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>33786</v>
+        <v>34151</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>33817</v>
+        <v>34182</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>33848</v>
+        <v>34213</v>
       </c>
       <c r="B377" t="n">
         <v>0</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>33878</v>
+        <v>34243</v>
       </c>
       <c r="B378" t="n">
         <v>0</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>33909</v>
+        <v>34274</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>33939</v>
+        <v>34304</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>33970</v>
+        <v>34335</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>34001</v>
+        <v>34366</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>34029</v>
+        <v>34394</v>
       </c>
       <c r="B383" t="n">
         <v>0</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>34060</v>
+        <v>34425</v>
       </c>
       <c r="B384" t="n">
         <v>0</v>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>34090</v>
+        <v>34455</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>34121</v>
+        <v>34486</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>34151</v>
+        <v>34516</v>
       </c>
       <c r="B387" t="n">
         <v>0</v>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>34182</v>
+        <v>34547</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>34213</v>
+        <v>34578</v>
       </c>
       <c r="B389" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>34243</v>
+        <v>34608</v>
       </c>
       <c r="B390" t="n">
         <v>0</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>34274</v>
+        <v>34639</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>34304</v>
+        <v>34669</v>
       </c>
       <c r="B392" t="n">
         <v>0</v>
@@ -9469,7 +9469,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>34335</v>
+        <v>34700</v>
       </c>
       <c r="B393" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>34366</v>
+        <v>34731</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>34394</v>
+        <v>34759</v>
       </c>
       <c r="B395" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>34425</v>
+        <v>34790</v>
       </c>
       <c r="B396" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>34455</v>
+        <v>34820</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>34486</v>
+        <v>34851</v>
       </c>
       <c r="B398" t="n">
         <v>0</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>34516</v>
+        <v>34881</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>34547</v>
+        <v>34912</v>
       </c>
       <c r="B400" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>34578</v>
+        <v>34943</v>
       </c>
       <c r="B401" t="n">
         <v>0</v>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>34608</v>
+        <v>34973</v>
       </c>
       <c r="B402" t="n">
         <v>0</v>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>34639</v>
+        <v>35004</v>
       </c>
       <c r="B403" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>34669</v>
+        <v>35034</v>
       </c>
       <c r="B404" t="n">
         <v>0</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>34700</v>
+        <v>35065</v>
       </c>
       <c r="B405" t="n">
         <v>0</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>34731</v>
+        <v>35096</v>
       </c>
       <c r="B406" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>34759</v>
+        <v>35125</v>
       </c>
       <c r="B407" t="n">
         <v>0</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="B408" t="n">
         <v>0</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>34820</v>
+        <v>35186</v>
       </c>
       <c r="B409" t="n">
         <v>0</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>34851</v>
+        <v>35217</v>
       </c>
       <c r="B410" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>34881</v>
+        <v>35247</v>
       </c>
       <c r="B411" t="n">
         <v>0</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>34912</v>
+        <v>35278</v>
       </c>
       <c r="B412" t="n">
         <v>0</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>34943</v>
+        <v>35309</v>
       </c>
       <c r="B413" t="n">
         <v>0</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>34973</v>
+        <v>35339</v>
       </c>
       <c r="B414" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>35004</v>
+        <v>35370</v>
       </c>
       <c r="B415" t="n">
         <v>0</v>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>35034</v>
+        <v>35400</v>
       </c>
       <c r="B416" t="n">
         <v>0</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>35065</v>
+        <v>35431</v>
       </c>
       <c r="B417" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>35096</v>
+        <v>35462</v>
       </c>
       <c r="B418" t="n">
         <v>0</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>35125</v>
+        <v>35490</v>
       </c>
       <c r="B419" t="n">
         <v>0</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="B420" t="n">
         <v>0</v>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>35186</v>
+        <v>35551</v>
       </c>
       <c r="B421" t="n">
         <v>0</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>35217</v>
+        <v>35582</v>
       </c>
       <c r="B422" t="n">
         <v>0</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>35247</v>
+        <v>35612</v>
       </c>
       <c r="B423" t="n">
         <v>0</v>
@@ -10182,7 +10182,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>35278</v>
+        <v>35643</v>
       </c>
       <c r="B424" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>35309</v>
+        <v>35674</v>
       </c>
       <c r="B425" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>35339</v>
+        <v>35704</v>
       </c>
       <c r="B426" t="n">
         <v>0</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>35370</v>
+        <v>35735</v>
       </c>
       <c r="B427" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>35400</v>
+        <v>35765</v>
       </c>
       <c r="B428" t="n">
         <v>0</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>35431</v>
+        <v>35796</v>
       </c>
       <c r="B429" t="n">
         <v>0</v>
@@ -10320,7 +10320,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>35462</v>
+        <v>35827</v>
       </c>
       <c r="B430" t="n">
         <v>0</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>35490</v>
+        <v>35855</v>
       </c>
       <c r="B431" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="B432" t="n">
         <v>0</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>35551</v>
+        <v>35916</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>35582</v>
+        <v>35947</v>
       </c>
       <c r="B434" t="n">
         <v>0</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>35612</v>
+        <v>35977</v>
       </c>
       <c r="B435" t="n">
         <v>0</v>
@@ -10458,7 +10458,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>35643</v>
+        <v>36008</v>
       </c>
       <c r="B436" t="n">
         <v>0</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>35674</v>
+        <v>36039</v>
       </c>
       <c r="B437" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>35704</v>
+        <v>36069</v>
       </c>
       <c r="B438" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>35735</v>
+        <v>36100</v>
       </c>
       <c r="B439" t="n">
         <v>0</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>35765</v>
+        <v>36130</v>
       </c>
       <c r="B440" t="n">
         <v>0</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>35796</v>
+        <v>36161</v>
       </c>
       <c r="B441" t="n">
         <v>0</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>35827</v>
+        <v>36192</v>
       </c>
       <c r="B442" t="n">
         <v>0</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>35855</v>
+        <v>36220</v>
       </c>
       <c r="B443" t="n">
         <v>0</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="B444" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>35916</v>
+        <v>36281</v>
       </c>
       <c r="B445" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>35947</v>
+        <v>36312</v>
       </c>
       <c r="B446" t="n">
         <v>0</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>35977</v>
+        <v>36342</v>
       </c>
       <c r="B447" t="n">
         <v>0</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>36008</v>
+        <v>36373</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>36039</v>
+        <v>36404</v>
       </c>
       <c r="B449" t="n">
         <v>0</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>36069</v>
+        <v>36434</v>
       </c>
       <c r="B450" t="n">
         <v>0</v>
@@ -10803,7 +10803,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>36100</v>
+        <v>36465</v>
       </c>
       <c r="B451" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>36130</v>
+        <v>36495</v>
       </c>
       <c r="B452" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>36161</v>
+        <v>36526</v>
       </c>
       <c r="B453" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>36192</v>
+        <v>36557</v>
       </c>
       <c r="B454" t="n">
         <v>0</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>36220</v>
+        <v>36586</v>
       </c>
       <c r="B455" t="n">
         <v>0</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="B456" t="n">
         <v>0</v>
@@ -10941,7 +10941,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>36281</v>
+        <v>36647</v>
       </c>
       <c r="B457" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>36312</v>
+        <v>36678</v>
       </c>
       <c r="B458" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>36342</v>
+        <v>36708</v>
       </c>
       <c r="B459" t="n">
         <v>0</v>
@@ -11010,7 +11010,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>36373</v>
+        <v>36739</v>
       </c>
       <c r="B460" t="n">
         <v>0</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>36404</v>
+        <v>36770</v>
       </c>
       <c r="B461" t="n">
         <v>0</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>36434</v>
+        <v>36800</v>
       </c>
       <c r="B462" t="n">
         <v>0</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>36465</v>
+        <v>36831</v>
       </c>
       <c r="B463" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>36495</v>
+        <v>36861</v>
       </c>
       <c r="B464" t="n">
         <v>0</v>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>36526</v>
+        <v>36892</v>
       </c>
       <c r="B465" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>36557</v>
+        <v>36923</v>
       </c>
       <c r="B466" t="n">
         <v>0</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>36586</v>
+        <v>36951</v>
       </c>
       <c r="B467" t="n">
         <v>0</v>
@@ -11194,7 +11194,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="B468" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>36647</v>
+        <v>37012</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>36678</v>
+        <v>37043</v>
       </c>
       <c r="B470" t="n">
         <v>0</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>36708</v>
+        <v>37073</v>
       </c>
       <c r="B471" t="n">
         <v>0</v>
@@ -11286,7 +11286,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>36739</v>
+        <v>37104</v>
       </c>
       <c r="B472" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>36770</v>
+        <v>37135</v>
       </c>
       <c r="B473" t="n">
         <v>0</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>36800</v>
+        <v>37165</v>
       </c>
       <c r="B474" t="n">
         <v>0</v>
@@ -11355,7 +11355,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>36831</v>
+        <v>37196</v>
       </c>
       <c r="B475" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>36861</v>
+        <v>37226</v>
       </c>
       <c r="B476" t="n">
         <v>0</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>36892</v>
+        <v>37257</v>
       </c>
       <c r="B477" t="n">
         <v>0</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>36923</v>
+        <v>37288</v>
       </c>
       <c r="B478" t="n">
         <v>0</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>36951</v>
+        <v>37316</v>
       </c>
       <c r="B479" t="n">
         <v>0</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="B480" t="n">
         <v>0</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>37012</v>
+        <v>37377</v>
       </c>
       <c r="B481" t="n">
         <v>0</v>
@@ -11516,7 +11516,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>37043</v>
+        <v>37408</v>
       </c>
       <c r="B482" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>37073</v>
+        <v>37438</v>
       </c>
       <c r="B483" t="n">
         <v>0</v>
@@ -11562,7 +11562,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>37104</v>
+        <v>37469</v>
       </c>
       <c r="B484" t="n">
         <v>0</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>37135</v>
+        <v>37500</v>
       </c>
       <c r="B485" t="n">
         <v>0</v>
@@ -11608,7 +11608,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>37165</v>
+        <v>37530</v>
       </c>
       <c r="B486" t="n">
         <v>0</v>
@@ -11631,7 +11631,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>37196</v>
+        <v>37561</v>
       </c>
       <c r="B487" t="n">
         <v>0</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>37226</v>
+        <v>37591</v>
       </c>
       <c r="B488" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>37257</v>
+        <v>37622</v>
       </c>
       <c r="B489" t="n">
         <v>0</v>
@@ -11700,7 +11700,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>37288</v>
+        <v>37653</v>
       </c>
       <c r="B490" t="n">
         <v>0</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>37316</v>
+        <v>37681</v>
       </c>
       <c r="B491" t="n">
         <v>0</v>
@@ -11746,7 +11746,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>37347</v>
+        <v>37712</v>
       </c>
       <c r="B492" t="n">
         <v>0</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>37377</v>
+        <v>37742</v>
       </c>
       <c r="B493" t="n">
         <v>0</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>37408</v>
+        <v>37773</v>
       </c>
       <c r="B494" t="n">
         <v>0</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>37438</v>
+        <v>37803</v>
       </c>
       <c r="B495" t="n">
         <v>0</v>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>37469</v>
+        <v>37834</v>
       </c>
       <c r="B496" t="n">
         <v>0</v>
@@ -11861,7 +11861,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>37500</v>
+        <v>37865</v>
       </c>
       <c r="B497" t="n">
         <v>0</v>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>37530</v>
+        <v>37895</v>
       </c>
       <c r="B498" t="n">
         <v>0</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>37561</v>
+        <v>37926</v>
       </c>
       <c r="B499" t="n">
         <v>0</v>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>37591</v>
+        <v>37956</v>
       </c>
       <c r="B500" t="n">
         <v>0</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>37622</v>
+        <v>37987</v>
       </c>
       <c r="B501" t="n">
         <v>0</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>37653</v>
+        <v>38018</v>
       </c>
       <c r="B502" t="n">
         <v>0</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>37681</v>
+        <v>38047</v>
       </c>
       <c r="B503" t="n">
         <v>0</v>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>37712</v>
+        <v>38078</v>
       </c>
       <c r="B504" t="n">
         <v>0</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>37742</v>
+        <v>38108</v>
       </c>
       <c r="B505" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>37773</v>
+        <v>38139</v>
       </c>
       <c r="B506" t="n">
         <v>0</v>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>37803</v>
+        <v>38169</v>
       </c>
       <c r="B507" t="n">
         <v>0</v>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>37834</v>
+        <v>38200</v>
       </c>
       <c r="B508" t="n">
         <v>0</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>37865</v>
+        <v>38231</v>
       </c>
       <c r="B509" t="n">
         <v>0</v>
@@ -12160,7 +12160,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>37895</v>
+        <v>38261</v>
       </c>
       <c r="B510" t="n">
         <v>0</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>37926</v>
+        <v>38292</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>37956</v>
+        <v>38322</v>
       </c>
       <c r="B512" t="n">
         <v>0</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>37987</v>
+        <v>38353</v>
       </c>
       <c r="B513" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>38018</v>
+        <v>38384</v>
       </c>
       <c r="B514" t="n">
         <v>0</v>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>38047</v>
+        <v>38412</v>
       </c>
       <c r="B515" t="n">
         <v>0</v>
@@ -12298,7 +12298,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="B516" t="n">
         <v>0</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>38108</v>
+        <v>38473</v>
       </c>
       <c r="B517" t="n">
         <v>0</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>38139</v>
+        <v>38504</v>
       </c>
       <c r="B518" t="n">
         <v>0</v>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>38169</v>
+        <v>38534</v>
       </c>
       <c r="B519" t="n">
         <v>0</v>
@@ -12390,7 +12390,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>38200</v>
+        <v>38565</v>
       </c>
       <c r="B520" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>38231</v>
+        <v>38596</v>
       </c>
       <c r="B521" t="n">
         <v>0</v>
@@ -12436,7 +12436,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>38261</v>
+        <v>38626</v>
       </c>
       <c r="B522" t="n">
         <v>0</v>
@@ -12459,7 +12459,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>38292</v>
+        <v>38657</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>38322</v>
+        <v>38687</v>
       </c>
       <c r="B524" t="n">
         <v>0</v>
@@ -12505,7 +12505,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>38353</v>
+        <v>38718</v>
       </c>
       <c r="B525" t="n">
         <v>0</v>
@@ -12528,7 +12528,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>38384</v>
+        <v>38749</v>
       </c>
       <c r="B526" t="n">
         <v>0</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>38412</v>
+        <v>38777</v>
       </c>
       <c r="B527" t="n">
         <v>0</v>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="B528" t="n">
         <v>0</v>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>38473</v>
+        <v>38838</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
@@ -12620,7 +12620,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>38504</v>
+        <v>38869</v>
       </c>
       <c r="B530" t="n">
         <v>0</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>38534</v>
+        <v>38899</v>
       </c>
       <c r="B531" t="n">
         <v>0</v>
@@ -12666,7 +12666,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>38565</v>
+        <v>38930</v>
       </c>
       <c r="B532" t="n">
         <v>0</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>38596</v>
+        <v>38961</v>
       </c>
       <c r="B533" t="n">
         <v>0</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>38626</v>
+        <v>38991</v>
       </c>
       <c r="B534" t="n">
         <v>0</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>38657</v>
+        <v>39022</v>
       </c>
       <c r="B535" t="n">
         <v>0</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="B536" t="n">
         <v>0</v>
@@ -12781,7 +12781,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>38718</v>
+        <v>39083</v>
       </c>
       <c r="B537" t="n">
         <v>0</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>38749</v>
+        <v>39114</v>
       </c>
       <c r="B538" t="n">
         <v>0</v>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>38777</v>
+        <v>39142</v>
       </c>
       <c r="B539" t="n">
         <v>0</v>
@@ -12850,7 +12850,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="B540" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>38838</v>
+        <v>39203</v>
       </c>
       <c r="B541" t="n">
         <v>0</v>
@@ -12896,7 +12896,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>38869</v>
+        <v>39234</v>
       </c>
       <c r="B542" t="n">
         <v>0</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>38899</v>
+        <v>39264</v>
       </c>
       <c r="B543" t="n">
         <v>0</v>
@@ -12942,7 +12942,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>38930</v>
+        <v>39295</v>
       </c>
       <c r="B544" t="n">
         <v>0</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>38961</v>
+        <v>39326</v>
       </c>
       <c r="B545" t="n">
         <v>0</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>38991</v>
+        <v>39356</v>
       </c>
       <c r="B546" t="n">
         <v>0</v>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>39022</v>
+        <v>39387</v>
       </c>
       <c r="B547" t="n">
         <v>0</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>39052</v>
+        <v>39417</v>
       </c>
       <c r="B548" t="n">
         <v>0</v>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>39083</v>
+        <v>39448</v>
       </c>
       <c r="B549" t="n">
         <v>0</v>
@@ -13080,7 +13080,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>39114</v>
+        <v>39479</v>
       </c>
       <c r="B550" t="n">
         <v>0</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>39142</v>
+        <v>39508</v>
       </c>
       <c r="B551" t="n">
         <v>0</v>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="B552" t="n">
         <v>0</v>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>39203</v>
+        <v>39569</v>
       </c>
       <c r="B553" t="n">
         <v>0</v>
@@ -13172,7 +13172,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>39234</v>
+        <v>39600</v>
       </c>
       <c r="B554" t="n">
         <v>0</v>
@@ -13195,7 +13195,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>39264</v>
+        <v>39630</v>
       </c>
       <c r="B555" t="n">
         <v>0</v>
@@ -13218,7 +13218,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>39295</v>
+        <v>39661</v>
       </c>
       <c r="B556" t="n">
         <v>0</v>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>39326</v>
+        <v>39692</v>
       </c>
       <c r="B557" t="n">
         <v>0</v>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>39356</v>
+        <v>39722</v>
       </c>
       <c r="B558" t="n">
         <v>0</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>39387</v>
+        <v>39753</v>
       </c>
       <c r="B559" t="n">
         <v>0</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>39417</v>
+        <v>39783</v>
       </c>
       <c r="B560" t="n">
         <v>0</v>
@@ -13333,7 +13333,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>39448</v>
+        <v>39814</v>
       </c>
       <c r="B561" t="n">
         <v>0</v>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>39479</v>
+        <v>39845</v>
       </c>
       <c r="B562" t="n">
         <v>0</v>
@@ -13379,7 +13379,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>39508</v>
+        <v>39873</v>
       </c>
       <c r="B563" t="n">
         <v>0</v>
@@ -13402,7 +13402,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="B564" t="n">
         <v>0</v>
@@ -13425,7 +13425,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>39569</v>
+        <v>39934</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
@@ -13448,7 +13448,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>39600</v>
+        <v>39965</v>
       </c>
       <c r="B566" t="n">
         <v>0</v>
@@ -13471,7 +13471,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>39630</v>
+        <v>39995</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>39661</v>
+        <v>40026</v>
       </c>
       <c r="B568" t="n">
         <v>0</v>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>39692</v>
+        <v>40057</v>
       </c>
       <c r="B569" t="n">
         <v>0</v>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>39722</v>
+        <v>40087</v>
       </c>
       <c r="B570" t="n">
         <v>0</v>
@@ -13563,7 +13563,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>39753</v>
+        <v>40118</v>
       </c>
       <c r="B571" t="n">
         <v>0</v>
@@ -13586,7 +13586,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>39783</v>
+        <v>40148</v>
       </c>
       <c r="B572" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="B573" t="n">
         <v>0</v>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>39845</v>
+        <v>40210</v>
       </c>
       <c r="B574" t="n">
         <v>0</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>39873</v>
+        <v>40238</v>
       </c>
       <c r="B575" t="n">
         <v>0</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="B576" t="n">
         <v>0</v>
@@ -13701,7 +13701,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>39934</v>
+        <v>40299</v>
       </c>
       <c r="B577" t="n">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>39965</v>
+        <v>40330</v>
       </c>
       <c r="B578" t="n">
         <v>0</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>39995</v>
+        <v>40360</v>
       </c>
       <c r="B579" t="n">
         <v>0</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>40026</v>
+        <v>40391</v>
       </c>
       <c r="B580" t="n">
         <v>0</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>40057</v>
+        <v>40422</v>
       </c>
       <c r="B581" t="n">
         <v>0</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>40087</v>
+        <v>40452</v>
       </c>
       <c r="B582" t="n">
         <v>0</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>40118</v>
+        <v>40483</v>
       </c>
       <c r="B583" t="n">
         <v>0</v>
@@ -13862,7 +13862,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>40148</v>
+        <v>40513</v>
       </c>
       <c r="B584" t="n">
         <v>0</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>40179</v>
+        <v>40544</v>
       </c>
       <c r="B585" t="n">
         <v>0</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>40210</v>
+        <v>40575</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>40238</v>
+        <v>40603</v>
       </c>
       <c r="B587" t="n">
         <v>0</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>40269</v>
+        <v>40634</v>
       </c>
       <c r="B588" t="n">
         <v>0</v>
@@ -13977,7 +13977,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>40299</v>
+        <v>40664</v>
       </c>
       <c r="B589" t="n">
         <v>0</v>
@@ -14000,7 +14000,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>40330</v>
+        <v>40695</v>
       </c>
       <c r="B590" t="n">
         <v>0</v>
@@ -14023,7 +14023,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>40360</v>
+        <v>40725</v>
       </c>
       <c r="B591" t="n">
         <v>0</v>
@@ -14046,7 +14046,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>40391</v>
+        <v>40756</v>
       </c>
       <c r="B592" t="n">
         <v>0</v>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>40422</v>
+        <v>40787</v>
       </c>
       <c r="B593" t="n">
         <v>0</v>
@@ -14092,7 +14092,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>40452</v>
+        <v>40817</v>
       </c>
       <c r="B594" t="n">
         <v>0</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>40483</v>
+        <v>40848</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>40513</v>
+        <v>40878</v>
       </c>
       <c r="B596" t="n">
         <v>0</v>
@@ -14161,7 +14161,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="B597" t="n">
         <v>0</v>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>40575</v>
+        <v>40940</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>40603</v>
+        <v>40969</v>
       </c>
       <c r="B599" t="n">
         <v>0</v>
@@ -14230,7 +14230,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>40634</v>
+        <v>41000</v>
       </c>
       <c r="B600" t="n">
         <v>0</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>40664</v>
+        <v>41030</v>
       </c>
       <c r="B601" t="n">
         <v>0</v>
@@ -14276,7 +14276,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>40695</v>
+        <v>41061</v>
       </c>
       <c r="B602" t="n">
         <v>0</v>
@@ -14299,7 +14299,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>40725</v>
+        <v>41091</v>
       </c>
       <c r="B603" t="n">
         <v>0</v>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>40756</v>
+        <v>41122</v>
       </c>
       <c r="B604" t="n">
         <v>0</v>
@@ -14345,7 +14345,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>40787</v>
+        <v>41153</v>
       </c>
       <c r="B605" t="n">
         <v>0</v>
@@ -14368,7 +14368,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>40817</v>
+        <v>41183</v>
       </c>
       <c r="B606" t="n">
         <v>0</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>40848</v>
+        <v>41214</v>
       </c>
       <c r="B607" t="n">
         <v>0</v>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="B608" t="n">
         <v>0</v>
@@ -14437,7 +14437,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>40909</v>
+        <v>41275</v>
       </c>
       <c r="B609" t="n">
         <v>0</v>
@@ -14460,7 +14460,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>40940</v>
+        <v>41306</v>
       </c>
       <c r="B610" t="n">
         <v>0</v>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>40969</v>
+        <v>41334</v>
       </c>
       <c r="B611" t="n">
         <v>0</v>
@@ -14506,7 +14506,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="B612" t="n">
         <v>0</v>
@@ -14529,7 +14529,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>41030</v>
+        <v>41395</v>
       </c>
       <c r="B613" t="n">
         <v>0</v>
@@ -14552,7 +14552,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>41061</v>
+        <v>41426</v>
       </c>
       <c r="B614" t="n">
         <v>0</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>41091</v>
+        <v>41456</v>
       </c>
       <c r="B615" t="n">
         <v>0</v>
@@ -14598,7 +14598,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>41122</v>
+        <v>41487</v>
       </c>
       <c r="B616" t="n">
         <v>0</v>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>41153</v>
+        <v>41518</v>
       </c>
       <c r="B617" t="n">
         <v>0</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>41183</v>
+        <v>41548</v>
       </c>
       <c r="B618" t="n">
         <v>0</v>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>41214</v>
+        <v>41579</v>
       </c>
       <c r="B619" t="n">
         <v>0</v>
@@ -14690,7 +14690,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="B620" t="n">
         <v>0</v>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="B621" t="n">
         <v>0</v>
@@ -14736,7 +14736,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>41306</v>
+        <v>41671</v>
       </c>
       <c r="B622" t="n">
         <v>0</v>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>41334</v>
+        <v>41699</v>
       </c>
       <c r="B623" t="n">
         <v>0</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="B624" t="n">
         <v>0</v>
@@ -14805,7 +14805,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="B625" t="n">
         <v>0</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="B626" t="n">
         <v>0</v>
@@ -14851,7 +14851,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="B627" t="n">
         <v>0</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>41487</v>
+        <v>41852</v>
       </c>
       <c r="B628" t="n">
         <v>0</v>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>41518</v>
+        <v>41883</v>
       </c>
       <c r="B629" t="n">
         <v>0</v>
@@ -14920,7 +14920,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>41548</v>
+        <v>41913</v>
       </c>
       <c r="B630" t="n">
         <v>0</v>
@@ -14943,7 +14943,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>41579</v>
+        <v>41944</v>
       </c>
       <c r="B631" t="n">
         <v>0</v>
@@ -14966,7 +14966,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="B632" t="n">
         <v>0</v>
@@ -14989,7 +14989,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>41640</v>
+        <v>42005</v>
       </c>
       <c r="B633" t="n">
         <v>0</v>
@@ -15012,7 +15012,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>41671</v>
+        <v>42036</v>
       </c>
       <c r="B634" t="n">
         <v>0</v>
@@ -15035,7 +15035,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>41699</v>
+        <v>42064</v>
       </c>
       <c r="B635" t="n">
         <v>0</v>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>41730</v>
+        <v>42095</v>
       </c>
       <c r="B636" t="n">
         <v>0</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>41760</v>
+        <v>42125</v>
       </c>
       <c r="B637" t="n">
         <v>0</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>41791</v>
+        <v>42156</v>
       </c>
       <c r="B638" t="n">
         <v>0</v>
@@ -15127,7 +15127,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>41821</v>
+        <v>42186</v>
       </c>
       <c r="B639" t="n">
         <v>0</v>
@@ -15150,7 +15150,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>41852</v>
+        <v>42217</v>
       </c>
       <c r="B640" t="n">
         <v>0</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>41883</v>
+        <v>42248</v>
       </c>
       <c r="B641" t="n">
         <v>0</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>41913</v>
+        <v>42278</v>
       </c>
       <c r="B642" t="n">
         <v>0</v>
@@ -15219,7 +15219,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>41944</v>
+        <v>42309</v>
       </c>
       <c r="B643" t="n">
         <v>0</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>41974</v>
+        <v>42339</v>
       </c>
       <c r="B644" t="n">
         <v>0</v>
@@ -15265,7 +15265,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="B645" t="n">
         <v>0</v>
@@ -15288,7 +15288,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>42036</v>
+        <v>42401</v>
       </c>
       <c r="B646" t="n">
         <v>0</v>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>42064</v>
+        <v>42430</v>
       </c>
       <c r="B647" t="n">
         <v>0</v>
@@ -15334,7 +15334,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="B648" t="n">
         <v>0</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>42125</v>
+        <v>42491</v>
       </c>
       <c r="B649" t="n">
         <v>0</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>42156</v>
+        <v>42522</v>
       </c>
       <c r="B650" t="n">
         <v>0</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>42186</v>
+        <v>42552</v>
       </c>
       <c r="B651" t="n">
         <v>0</v>
@@ -15426,7 +15426,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>42217</v>
+        <v>42583</v>
       </c>
       <c r="B652" t="n">
         <v>0</v>
@@ -15449,7 +15449,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>42248</v>
+        <v>42614</v>
       </c>
       <c r="B653" t="n">
         <v>0</v>
@@ -15472,7 +15472,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>42278</v>
+        <v>42644</v>
       </c>
       <c r="B654" t="n">
         <v>0</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>42309</v>
+        <v>42675</v>
       </c>
       <c r="B655" t="n">
         <v>0</v>
@@ -15518,7 +15518,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>42339</v>
+        <v>42705</v>
       </c>
       <c r="B656" t="n">
         <v>0</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="B657" t="n">
         <v>0</v>
@@ -15564,7 +15564,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="B658" t="n">
         <v>0</v>
@@ -15587,7 +15587,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="B659" t="n">
         <v>0</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="B660" t="n">
         <v>0</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="B661" t="n">
         <v>0</v>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="B662" t="n">
         <v>0</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="B663" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="B664" t="n">
         <v>0</v>
@@ -15725,7 +15725,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="B665" t="n">
         <v>0</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="B666" t="n">
         <v>0</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="B667" t="n">
         <v>0</v>
@@ -15794,7 +15794,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="B668" t="n">
         <v>0</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="B669" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="B670" t="n">
         <v>0</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="B671" t="n">
         <v>0</v>
@@ -15886,7 +15886,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="B672" t="n">
         <v>0</v>
@@ -15909,7 +15909,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="B673" t="n">
         <v>0</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="B674" t="n">
         <v>0</v>
@@ -15955,7 +15955,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="B675" t="n">
         <v>0</v>
@@ -15978,7 +15978,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="B676" t="n">
         <v>0</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B677" t="n">
         <v>0</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B678" t="n">
         <v>0</v>
@@ -16047,7 +16047,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B679" t="n">
         <v>0</v>
@@ -16070,7 +16070,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B680" t="n">
         <v>0</v>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B681" t="n">
         <v>0</v>
@@ -16116,7 +16116,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B682" t="n">
         <v>0</v>
@@ -16139,7 +16139,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B683" t="n">
         <v>0</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B684" t="n">
         <v>0</v>
@@ -16185,7 +16185,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B685" t="n">
         <v>0</v>
@@ -16208,7 +16208,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B686" t="n">
         <v>0</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B687" t="n">
         <v>0</v>
@@ -16254,7 +16254,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B688" t="n">
         <v>0</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B689" t="n">
         <v>0</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B690" t="n">
         <v>0</v>
@@ -16323,7 +16323,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B691" t="n">
         <v>0</v>
@@ -16346,7 +16346,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B692" t="n">
         <v>0</v>
@@ -16369,7 +16369,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B693" t="n">
         <v>0</v>
@@ -16392,7 +16392,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B694" t="n">
         <v>0</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B695" t="n">
         <v>0</v>
@@ -16438,7 +16438,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B696" t="n">
         <v>0</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B697" t="n">
         <v>0</v>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B698" t="n">
         <v>0</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B699" t="n">
         <v>0</v>
@@ -16530,7 +16530,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B700" t="n">
         <v>0</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B701" t="n">
         <v>0</v>
@@ -16576,7 +16576,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B702" t="n">
         <v>0</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B703" t="n">
         <v>0</v>
@@ -16622,7 +16622,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B704" t="n">
         <v>0</v>
@@ -16645,7 +16645,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B705" t="n">
         <v>0</v>
@@ -16668,7 +16668,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B706" t="n">
         <v>0</v>
@@ -16691,7 +16691,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B707" t="n">
         <v>0</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B708" t="n">
         <v>0</v>
@@ -16737,7 +16737,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B709" t="n">
         <v>0</v>
@@ -16760,7 +16760,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B710" t="n">
         <v>0</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B711" t="n">
         <v>0</v>
@@ -16806,7 +16806,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B712" t="n">
         <v>0</v>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B713" t="n">
         <v>0</v>
@@ -16852,7 +16852,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B714" t="n">
         <v>0</v>
@@ -16875,7 +16875,7 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B715" t="n">
         <v>0</v>
@@ -16898,7 +16898,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B716" t="n">
         <v>0</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B717" t="n">
         <v>0</v>
@@ -16944,7 +16944,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B718" t="n">
         <v>0</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B719" t="n">
         <v>0</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B720" t="n">
         <v>0</v>
@@ -17013,7 +17013,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B721" t="n">
         <v>0</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B722" t="n">
         <v>0</v>
@@ -17059,7 +17059,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B723" t="n">
         <v>0</v>
@@ -17082,7 +17082,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B724" t="n">
         <v>0</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B725" t="n">
         <v>0</v>
@@ -17128,7 +17128,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B726" t="n">
         <v>0</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B727" t="n">
         <v>0</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B728" t="n">
         <v>0</v>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B729" t="n">
         <v>0</v>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B730" t="n">
         <v>0</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B731" t="n">
         <v>0</v>
@@ -17266,7 +17266,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B732" t="n">
         <v>0</v>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B733" t="n">
         <v>0</v>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B734" t="n">
         <v>0</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B735" t="n">
         <v>0</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B736" t="n">
         <v>0</v>
@@ -17381,7 +17381,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B737" t="n">
         <v>0</v>
@@ -17404,7 +17404,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B738" t="n">
         <v>0</v>
@@ -17427,7 +17427,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B739" t="n">
         <v>0</v>
@@ -17450,7 +17450,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B740" t="n">
         <v>0</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="B741" t="n">
         <v>0</v>
@@ -17496,7 +17496,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44958</v>
+        <v>45323</v>
       </c>
       <c r="B742" t="n">
         <v>0</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44986</v>
+        <v>45352</v>
       </c>
       <c r="B743" t="n">
         <v>0</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>45017</v>
+        <v>45383</v>
       </c>
       <c r="B744" t="n">
         <v>0</v>
@@ -17565,7 +17565,7 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>45047</v>
+        <v>45413</v>
       </c>
       <c r="B745" t="n">
         <v>0</v>
@@ -17588,7 +17588,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="B746" t="n">
         <v>0</v>
@@ -17611,7 +17611,7 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>45108</v>
+        <v>45474</v>
       </c>
       <c r="B747" t="n">
         <v>0</v>
@@ -17634,7 +17634,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>45139</v>
+        <v>45505</v>
       </c>
       <c r="B748" t="n">
         <v>0</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>45170</v>
+        <v>45536</v>
       </c>
       <c r="B749" t="n">
         <v>0</v>
@@ -17680,7 +17680,7 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>45200</v>
+        <v>45566</v>
       </c>
       <c r="B750" t="n">
         <v>0</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>45231</v>
+        <v>45597</v>
       </c>
       <c r="B751" t="n">
         <v>0</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>45261</v>
+        <v>45627</v>
       </c>
       <c r="B752" t="n">
         <v>0</v>
@@ -17748,9 +17748,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="2" t="n">
-        <v>45292</v>
-      </c>
+      <c r="A753" t="inlineStr"/>
       <c r="B753" t="n">
         <v>0</v>
       </c>
@@ -17761,9 +17759,7 @@
       <c r="G753" t="inlineStr"/>
     </row>
     <row r="754">
-      <c r="A754" s="2" t="n">
-        <v>45323</v>
-      </c>
+      <c r="A754" t="inlineStr"/>
       <c r="B754" t="n">
         <v>0</v>
       </c>
@@ -17774,9 +17770,7 @@
       <c r="G754" t="inlineStr"/>
     </row>
     <row r="755">
-      <c r="A755" s="2" t="n">
-        <v>45352</v>
-      </c>
+      <c r="A755" t="inlineStr"/>
       <c r="B755" t="n">
         <v>0</v>
       </c>
@@ -17787,9 +17781,7 @@
       <c r="G755" t="inlineStr"/>
     </row>
     <row r="756">
-      <c r="A756" s="2" t="n">
-        <v>45383</v>
-      </c>
+      <c r="A756" t="inlineStr"/>
       <c r="B756" t="n">
         <v>0</v>
       </c>
@@ -17800,9 +17792,7 @@
       <c r="G756" t="inlineStr"/>
     </row>
     <row r="757">
-      <c r="A757" s="2" t="n">
-        <v>45413</v>
-      </c>
+      <c r="A757" t="inlineStr"/>
       <c r="B757" t="n">
         <v>0</v>
       </c>
@@ -17813,9 +17803,7 @@
       <c r="G757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="n">
-        <v>45444</v>
-      </c>
+      <c r="A758" t="inlineStr"/>
       <c r="B758" t="n">
         <v>0</v>
       </c>
@@ -17826,9 +17814,7 @@
       <c r="G758" t="inlineStr"/>
     </row>
     <row r="759">
-      <c r="A759" s="2" t="n">
-        <v>45474</v>
-      </c>
+      <c r="A759" t="inlineStr"/>
       <c r="B759" t="n">
         <v>0</v>
       </c>
@@ -17839,9 +17825,7 @@
       <c r="G759" t="inlineStr"/>
     </row>
     <row r="760">
-      <c r="A760" s="2" t="n">
-        <v>45505</v>
-      </c>
+      <c r="A760" t="inlineStr"/>
       <c r="B760" t="n">
         <v>0</v>
       </c>
@@ -17852,9 +17836,7 @@
       <c r="G760" t="inlineStr"/>
     </row>
     <row r="761">
-      <c r="A761" s="2" t="n">
-        <v>45536</v>
-      </c>
+      <c r="A761" t="inlineStr"/>
       <c r="B761" t="n">
         <v>0</v>
       </c>
@@ -17865,9 +17847,7 @@
       <c r="G761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" s="2" t="n">
-        <v>45566</v>
-      </c>
+      <c r="A762" t="inlineStr"/>
       <c r="B762" t="n">
         <v>0</v>
       </c>
@@ -17878,9 +17858,7 @@
       <c r="G762" t="inlineStr"/>
     </row>
     <row r="763">
-      <c r="A763" s="2" t="n">
-        <v>45597</v>
-      </c>
+      <c r="A763" t="inlineStr"/>
       <c r="B763" t="n">
         <v>0</v>
       </c>
@@ -17891,9 +17869,7 @@
       <c r="G763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" s="2" t="n">
-        <v>45627</v>
-      </c>
+      <c r="A764" t="inlineStr"/>
       <c r="B764" t="n">
         <v>0</v>
       </c>
